--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540" activeTab="1"/>
+    <workbookView windowWidth="29160" windowHeight="14540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,12 +141,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -603,52 +597,52 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,83 +651,83 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
@@ -746,10 +740,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1104,7 +1095,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="7"/>
@@ -1220,10 +1211,10 @@
       <c r="D5" s="5">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="5">
@@ -1240,10 +1231,10 @@
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="5">
@@ -1260,10 +1251,10 @@
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="5"/>
@@ -1278,10 +1269,10 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="5"/>
@@ -1296,10 +1287,10 @@
       <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="5"/>
@@ -1314,10 +1305,10 @@
       <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="5"/>
@@ -1335,7 +1326,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1434,7 +1425,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="5">
-        <v>30301</v>
+        <v>30300</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1454,7 +1445,7 @@
         <v>27</v>
       </c>
       <c r="G5" s="5">
-        <v>30302</v>
+        <v>30301</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1474,7 +1465,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="5">
-        <v>30303</v>
+        <v>30302</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1494,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="5">
-        <v>30304</v>
+        <v>30303</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -1514,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="G8" s="5">
-        <v>30305</v>
+        <v>30304</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29160" windowHeight="14540" activeTab="1"/>
+    <workbookView windowWidth="29120" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -71,10 +71,22 @@
     <t>Gate</t>
   </si>
   <si>
-    <t>Gate1</t>
-  </si>
-  <si>
-    <t>Gate2</t>
+    <t>Gate_Game1</t>
+  </si>
+  <si>
+    <t>Gate_Game2</t>
+  </si>
+  <si>
+    <t>Gate_Game3</t>
+  </si>
+  <si>
+    <t>Gate_Game4</t>
+  </si>
+  <si>
+    <t>Gate_Robot</t>
+  </si>
+  <si>
+    <t>Gate_Router</t>
   </si>
   <si>
     <t>Location</t>
@@ -1092,10 +1104,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="7"/>
@@ -1249,15 +1261,17 @@
         <v>1</v>
       </c>
       <c r="D7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>30005</v>
+      </c>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="5">
@@ -1267,15 +1281,17 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>30006</v>
+      </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="5">
@@ -1285,15 +1301,17 @@
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>30007</v>
+      </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="5">
@@ -1303,15 +1321,89 @@
         <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="5">
+        <v>30008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="F11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="5">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="5">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1325,7 +1417,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1419,10 +1511,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5">
         <v>30300</v>
@@ -1439,10 +1531,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G5" s="5">
         <v>30301</v>
@@ -1459,10 +1551,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5">
         <v>30302</v>
@@ -1479,10 +1571,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5">
         <v>30303</v>
@@ -1499,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5">
         <v>30304</v>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="14540"/>
+    <workbookView windowWidth="29120" windowHeight="14540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
     <sheet name="Router" sheetId="2" r:id="rId2"/>
+    <sheet name="Common" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -120,6 +121,9 @@
   </si>
   <si>
     <t>Router04</t>
+  </si>
+  <si>
+    <t>LoginCenter</t>
   </si>
 </sst>
 </file>
@@ -1106,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="7"/>
@@ -1193,7 +1197,10 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -1418,7 +1425,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A1" sqref="$A1:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1604,4 +1611,136 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="5" max="6" width="12.9230769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4">
+        <v>401</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5">
+        <v>402</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>30002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29120" windowHeight="14540" activeTab="2"/>
+    <workbookView windowHeight="16760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="7"/>
@@ -1424,8 +1424,8 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD3"/>
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1619,7 +1619,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>401</v>
       </c>
@@ -1714,9 +1714,6 @@
       </c>
       <c r="F4" t="s">
         <v>35</v>
-      </c>
-      <c r="G4">
-        <v>31000</v>
       </c>
     </row>
     <row r="5" spans="2:7">

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760" activeTab="2"/>
+    <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -1110,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelCol="7"/>
@@ -1618,7 +1618,7 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+    <sheetView zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
